--- a/wikipedia_validation_sheets/Carciac myxoma DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Carciac myxoma DISNET VALIDATION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EAA7E8C0-41FE-F743-8C3C-3F3F791ACB33}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F182D6-9126-124A-A2D4-8A1E38BEA22F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38460" yWindow="460" windowWidth="19480" windowHeight="21040" xr2:uid="{48078ED5-1597-479E-B2C0-975E6EA959C0}"/>
+    <workbookView xWindow="6120" yWindow="460" windowWidth="19480" windowHeight="15460" xr2:uid="{48078ED5-1597-479E-B2C0-975E6EA959C0}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="162">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -408,9 +408,6 @@
     <t>Shortness of breath with activity</t>
   </si>
   <si>
-    <t>Clubbing</t>
-  </si>
-  <si>
     <t>FPREAL</t>
   </si>
   <si>
@@ -421,13 +418,109 @@
   </si>
   <si>
     <t>FPCONTEXT</t>
+  </si>
+  <si>
+    <t>blue, nevi</t>
+  </si>
+  <si>
+    <t>Blue naevus</t>
+  </si>
+  <si>
+    <t>[neop]</t>
+  </si>
+  <si>
+    <t>hyperactivity</t>
+  </si>
+  <si>
+    <t>Hyperactive behavior</t>
+  </si>
+  <si>
+    <t>[mobd]</t>
+  </si>
+  <si>
+    <t>tumour, tumors</t>
+  </si>
+  <si>
+    <t>Neoplasms</t>
+  </si>
+  <si>
+    <t>clubbing</t>
+  </si>
+  <si>
+    <t>Clubbed fingers</t>
+  </si>
+  <si>
+    <t>[anab]</t>
+  </si>
+  <si>
+    <t>stasis</t>
+  </si>
+  <si>
+    <t>Stasis</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>ball, valve, obstruction</t>
+  </si>
+  <si>
+    <t>Ball valve obstruction</t>
+  </si>
+  <si>
+    <t>feeling</t>
+  </si>
+  <si>
+    <t>Emotions</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>heart, tumour</t>
+  </si>
+  <si>
+    <t>Neoplasm of heart</t>
+  </si>
+  <si>
+    <t>sudden, death</t>
+  </si>
+  <si>
+    <t>Sudden death</t>
+  </si>
+  <si>
+    <t>schwannomas</t>
+  </si>
+  <si>
+    <t>Neurilemmoma</t>
+  </si>
+  <si>
+    <t>atrial, myxomas, myxoma</t>
+  </si>
+  <si>
+    <t>Atrial myxoma</t>
+  </si>
+  <si>
+    <t>abnormalities</t>
+  </si>
+  <si>
+    <t>Congenital abnormality</t>
+  </si>
+  <si>
+    <t>[cgab]</t>
+  </si>
+  <si>
+    <t>myxomas</t>
+  </si>
+  <si>
+    <t>Myxoma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,7 +780,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -727,6 +820,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1064,13 +1160,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD971556-A549-4438-9FC5-E54C56FCCE8F}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
@@ -1082,39 +1178,39 @@
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32" thickBot="1">
+    <row r="1" spans="1:11" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="1:11" ht="17" thickBot="1">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="24"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="1:11" ht="16">
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -1141,7 +1237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16">
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1171,7 +1267,7 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11" ht="16">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1201,7 +1297,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11" ht="16">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1231,7 +1327,7 @@
       </c>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:11" ht="16">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1261,7 +1357,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11" ht="16">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1291,7 +1387,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11" ht="16">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1321,7 +1417,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11" ht="16">
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1347,11 +1443,11 @@
         <v>121</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11" ht="16">
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1381,7 +1477,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="16">
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1411,7 +1507,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11" ht="16">
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1441,7 +1537,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11" ht="16">
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1471,7 +1567,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11" ht="16">
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1497,11 +1593,11 @@
         <v>121</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11" ht="16">
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1531,7 +1627,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" ht="16">
+    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1561,7 +1657,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" ht="16">
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1591,7 +1687,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" ht="16">
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1621,7 +1717,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" ht="16">
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1651,7 +1747,7 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" ht="16">
+    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1681,7 +1777,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="16">
+    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1711,7 +1807,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="16">
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1741,7 +1837,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" ht="16">
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1771,7 +1867,7 @@
       </c>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" ht="16">
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1801,7 +1897,7 @@
       </c>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" ht="16">
+    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1831,7 +1927,7 @@
       </c>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" ht="16">
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1861,7 +1957,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" ht="16">
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1891,7 +1987,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" ht="16">
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1921,7 +2017,7 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" ht="16">
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1951,7 +2047,7 @@
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" ht="16">
+    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1981,7 +2077,7 @@
       </c>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" ht="16">
+    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -2011,7 +2107,7 @@
       </c>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:11" ht="16">
+    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2041,7 +2137,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11" ht="16">
+    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -2071,7 +2167,7 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11" ht="16">
+    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -2101,7 +2197,7 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11" ht="16">
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2131,7 +2227,7 @@
       </c>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11" ht="16">
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -2161,7 +2257,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:11" ht="16">
+    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2191,7 +2287,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11" ht="16">
+    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2221,7 +2317,7 @@
       </c>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:11" ht="16">
+    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2251,7 +2347,7 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11" ht="16">
+    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -2281,7 +2377,7 @@
       </c>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:11" ht="16">
+    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
@@ -2311,7 +2407,7 @@
       </c>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:11" ht="16">
+    <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
@@ -2341,7 +2437,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:11" ht="16">
+    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
@@ -2371,7 +2467,7 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11" ht="16">
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
@@ -2401,7 +2497,7 @@
       </c>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:11" ht="16">
+    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
@@ -2431,7 +2527,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11" ht="16">
+    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
@@ -2461,7 +2557,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11" ht="16">
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
@@ -2491,7 +2587,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11" ht="16">
+    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
@@ -2521,7 +2617,7 @@
       </c>
       <c r="K49" s="16"/>
     </row>
-    <row r="50" spans="1:11" ht="16">
+    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>47</v>
       </c>
@@ -2551,7 +2647,7 @@
       </c>
       <c r="K50" s="16"/>
     </row>
-    <row r="51" spans="1:11" ht="16">
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>48</v>
       </c>
@@ -2581,7 +2677,7 @@
       </c>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:11" ht="16">
+    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
@@ -2611,7 +2707,7 @@
       </c>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:11" ht="16">
+    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
@@ -2641,7 +2737,7 @@
       </c>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:11" ht="16">
+    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>51</v>
       </c>
@@ -2671,7 +2767,7 @@
       </c>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:11" ht="16">
+    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>52</v>
       </c>
@@ -2701,120 +2797,563 @@
       </c>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:11">
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-    </row>
-    <row r="57" spans="1:11" ht="16">
+    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K56" s="16"/>
+    </row>
+    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>54</v>
+      </c>
       <c r="B57" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K57" s="16"/>
+    </row>
+    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K58" s="16"/>
+    </row>
+    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K59" s="16"/>
+    </row>
+    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K60" s="16"/>
+    </row>
+    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K61" s="16"/>
+    </row>
+    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K62" s="16"/>
+    </row>
+    <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K63" s="16"/>
+    </row>
+    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K64" s="16"/>
+    </row>
+    <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K65" s="16"/>
+    </row>
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K66" s="16"/>
+    </row>
+    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E67" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K67" s="16"/>
+    </row>
+    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E68" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K68" s="16"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B70" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H57" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I57" s="15" t="s">
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I70" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="K57" s="16"/>
-    </row>
-    <row r="58" spans="1:11" ht="16">
-      <c r="B58" s="10" t="s">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B71" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H58" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I58" s="15" t="s">
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I71" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="K58" s="16"/>
-    </row>
-    <row r="59" spans="1:11" ht="16">
-      <c r="B59" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H59" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I59" s="15" t="s">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B72" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I72" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="K59" s="16"/>
-    </row>
-    <row r="60" spans="1:11" ht="16">
-      <c r="B60" s="10" t="s">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B73" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I60" s="15" t="s">
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I73" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="K60" s="16"/>
-    </row>
-    <row r="61" spans="1:11" ht="16">
-      <c r="B61" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H61" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I61" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="K61" s="16"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:I3" xr:uid="{3FCF4D34-B4F8-804E-99C6-3A582DFB07BC}">
